--- a/covid.xlsx
+++ b/covid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I360"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A347" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G362" sqref="G362"/>
+      <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11928,6 +11928,38 @@
         <v>2052</v>
       </c>
     </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C361">
+        <v>568506</v>
+      </c>
+      <c r="D361">
+        <v>12527</v>
+      </c>
+      <c r="E361">
+        <v>531840</v>
+      </c>
+      <c r="F361">
+        <v>24139</v>
+      </c>
+      <c r="G361" s="2">
+        <f t="shared" ref="G361" si="85">C361-C360</f>
+        <v>1245</v>
+      </c>
+      <c r="H361" s="3">
+        <f t="shared" ref="H361" si="86">D361-D360</f>
+        <v>39</v>
+      </c>
+      <c r="I361" s="4">
+        <f t="shared" ref="I361" si="87">E361-E360</f>
+        <v>1243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I379" sqref="I379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11960,6 +11960,582 @@
         <v>1243</v>
       </c>
     </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C362">
+        <v>569845</v>
+      </c>
+      <c r="D362">
+        <v>12563</v>
+      </c>
+      <c r="E362">
+        <v>533202</v>
+      </c>
+      <c r="F362">
+        <v>24080</v>
+      </c>
+      <c r="G362" s="2">
+        <f t="shared" ref="G362:G363" si="88">C362-C361</f>
+        <v>1339</v>
+      </c>
+      <c r="H362" s="3">
+        <f t="shared" ref="H362:H363" si="89">D362-D361</f>
+        <v>36</v>
+      </c>
+      <c r="I362" s="4">
+        <f t="shared" ref="I362:I363" si="90">E362-E361</f>
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C363">
+        <v>571174</v>
+      </c>
+      <c r="D363">
+        <v>12601</v>
+      </c>
+      <c r="E363">
+        <v>534107</v>
+      </c>
+      <c r="F363">
+        <v>24466</v>
+      </c>
+      <c r="G363" s="2">
+        <f t="shared" si="88"/>
+        <v>1329</v>
+      </c>
+      <c r="H363" s="3">
+        <f t="shared" si="89"/>
+        <v>38</v>
+      </c>
+      <c r="I363" s="4">
+        <f t="shared" si="90"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C364">
+        <v>572334</v>
+      </c>
+      <c r="D364">
+        <v>12617</v>
+      </c>
+      <c r="E364">
+        <v>535491</v>
+      </c>
+      <c r="F364">
+        <v>24226</v>
+      </c>
+      <c r="G364" s="2">
+        <f t="shared" ref="G364" si="91">C364-C363</f>
+        <v>1160</v>
+      </c>
+      <c r="H364" s="3">
+        <f t="shared" ref="H364" si="92">D364-D363</f>
+        <v>16</v>
+      </c>
+      <c r="I364" s="4">
+        <f t="shared" ref="I364" si="93">E364-E363</f>
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C365">
+        <v>573384</v>
+      </c>
+      <c r="D365">
+        <v>12658</v>
+      </c>
+      <c r="E365">
+        <v>536243</v>
+      </c>
+      <c r="F365">
+        <v>24483</v>
+      </c>
+      <c r="G365" s="2">
+        <f t="shared" ref="G365:G367" si="94">C365-C364</f>
+        <v>1050</v>
+      </c>
+      <c r="H365" s="3">
+        <f t="shared" ref="H365:H367" si="95">D365-D364</f>
+        <v>41</v>
+      </c>
+      <c r="I365" s="4">
+        <f t="shared" ref="I365:I367" si="96">E365-E364</f>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C366">
+        <v>574580</v>
+      </c>
+      <c r="D366">
+        <v>12708</v>
+      </c>
+      <c r="E366">
+        <v>538207</v>
+      </c>
+      <c r="F366">
+        <v>23665</v>
+      </c>
+      <c r="G366" s="2">
+        <f t="shared" si="94"/>
+        <v>1196</v>
+      </c>
+      <c r="H366" s="3">
+        <f t="shared" si="95"/>
+        <v>50</v>
+      </c>
+      <c r="I366" s="4">
+        <f t="shared" si="96"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C367">
+        <v>575941</v>
+      </c>
+      <c r="D367">
+        <v>12772</v>
+      </c>
+      <c r="E367">
+        <v>539888</v>
+      </c>
+      <c r="F367">
+        <v>23281</v>
+      </c>
+      <c r="G367" s="2">
+        <f t="shared" si="94"/>
+        <v>1361</v>
+      </c>
+      <c r="H367" s="3">
+        <f t="shared" si="95"/>
+        <v>64</v>
+      </c>
+      <c r="I367" s="4">
+        <f t="shared" si="96"/>
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C368">
+        <v>577482</v>
+      </c>
+      <c r="D368">
+        <v>12804</v>
+      </c>
+      <c r="E368">
+        <v>542393</v>
+      </c>
+      <c r="F368">
+        <v>22285</v>
+      </c>
+      <c r="G368" s="2">
+        <f t="shared" ref="G368:G373" si="97">C368-C367</f>
+        <v>1541</v>
+      </c>
+      <c r="H368" s="3">
+        <f t="shared" ref="H368:H373" si="98">D368-D367</f>
+        <v>32</v>
+      </c>
+      <c r="I368" s="4">
+        <f t="shared" ref="I368:I373" si="99">E368-E367</f>
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C369">
+        <v>578797</v>
+      </c>
+      <c r="D369">
+        <v>12837</v>
+      </c>
+      <c r="E369">
+        <v>544406</v>
+      </c>
+      <c r="F369">
+        <v>21554</v>
+      </c>
+      <c r="G369" s="2">
+        <f t="shared" si="97"/>
+        <v>1315</v>
+      </c>
+      <c r="H369" s="3">
+        <f t="shared" si="98"/>
+        <v>33</v>
+      </c>
+      <c r="I369" s="4">
+        <f t="shared" si="99"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C370">
+        <v>579973</v>
+      </c>
+      <c r="D370">
+        <v>12860</v>
+      </c>
+      <c r="E370">
+        <v>545277</v>
+      </c>
+      <c r="F370">
+        <v>21836</v>
+      </c>
+      <c r="G370" s="2">
+        <f t="shared" si="97"/>
+        <v>1176</v>
+      </c>
+      <c r="H370" s="3">
+        <f t="shared" si="98"/>
+        <v>23</v>
+      </c>
+      <c r="I370" s="4">
+        <f t="shared" si="99"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C371">
+        <v>581365</v>
+      </c>
+      <c r="D371">
+        <v>12896</v>
+      </c>
+      <c r="E371">
+        <v>546371</v>
+      </c>
+      <c r="F371">
+        <v>22098</v>
+      </c>
+      <c r="G371" s="2">
+        <f t="shared" si="97"/>
+        <v>1392</v>
+      </c>
+      <c r="H371" s="3">
+        <f t="shared" si="98"/>
+        <v>36</v>
+      </c>
+      <c r="I371" s="4">
+        <f t="shared" si="99"/>
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C372">
+        <v>582528</v>
+      </c>
+      <c r="D372">
+        <v>12938</v>
+      </c>
+      <c r="E372">
+        <v>547406</v>
+      </c>
+      <c r="F372">
+        <v>22184</v>
+      </c>
+      <c r="G372" s="2">
+        <f t="shared" si="97"/>
+        <v>1163</v>
+      </c>
+      <c r="H372" s="3">
+        <f t="shared" si="98"/>
+        <v>42</v>
+      </c>
+      <c r="I372" s="4">
+        <f t="shared" si="99"/>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C373">
+        <v>583916</v>
+      </c>
+      <c r="D373">
+        <v>13013</v>
+      </c>
+      <c r="E373">
+        <v>554255</v>
+      </c>
+      <c r="F373">
+        <v>16648</v>
+      </c>
+      <c r="G373" s="2">
+        <f t="shared" si="97"/>
+        <v>1388</v>
+      </c>
+      <c r="H373" s="3">
+        <f t="shared" si="98"/>
+        <v>75</v>
+      </c>
+      <c r="I373" s="4">
+        <f t="shared" si="99"/>
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C374">
+        <v>585435</v>
+      </c>
+      <c r="D374">
+        <v>13076</v>
+      </c>
+      <c r="E374">
+        <v>555242</v>
+      </c>
+      <c r="F374">
+        <v>17117</v>
+      </c>
+      <c r="G374" s="2">
+        <f t="shared" ref="G374:G379" si="100">C374-C373</f>
+        <v>1519</v>
+      </c>
+      <c r="H374" s="3">
+        <f t="shared" ref="H374:H379" si="101">D374-D373</f>
+        <v>63</v>
+      </c>
+      <c r="I374" s="4">
+        <f t="shared" ref="I374:I379" si="102">E374-E373</f>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C375">
+        <v>587014</v>
+      </c>
+      <c r="D375">
+        <v>13128</v>
+      </c>
+      <c r="E375">
+        <v>556769</v>
+      </c>
+      <c r="F375">
+        <v>17117</v>
+      </c>
+      <c r="G375" s="2">
+        <f t="shared" si="100"/>
+        <v>1579</v>
+      </c>
+      <c r="H375" s="3">
+        <f t="shared" si="101"/>
+        <v>52</v>
+      </c>
+      <c r="I375" s="4">
+        <f t="shared" si="102"/>
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C376">
+        <v>588728</v>
+      </c>
+      <c r="D376">
+        <v>13166</v>
+      </c>
+      <c r="E376">
+        <v>558210</v>
+      </c>
+      <c r="F376">
+        <v>17352</v>
+      </c>
+      <c r="G376" s="2">
+        <f t="shared" si="100"/>
+        <v>1714</v>
+      </c>
+      <c r="H376" s="3">
+        <f t="shared" si="101"/>
+        <v>38</v>
+      </c>
+      <c r="I376" s="4">
+        <f t="shared" si="102"/>
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C377">
+        <v>590508</v>
+      </c>
+      <c r="D377">
+        <v>13205</v>
+      </c>
+      <c r="E377">
+        <v>559248</v>
+      </c>
+      <c r="F377">
+        <v>18055</v>
+      </c>
+      <c r="G377" s="2">
+        <f t="shared" si="100"/>
+        <v>1780</v>
+      </c>
+      <c r="H377" s="3">
+        <f t="shared" si="101"/>
+        <v>39</v>
+      </c>
+      <c r="I377" s="4">
+        <f t="shared" si="102"/>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C378">
+        <v>592100</v>
+      </c>
+      <c r="D378">
+        <v>13227</v>
+      </c>
+      <c r="E378">
+        <v>560458</v>
+      </c>
+      <c r="F378">
+        <v>18415</v>
+      </c>
+      <c r="G378" s="2">
+        <f t="shared" si="100"/>
+        <v>1592</v>
+      </c>
+      <c r="H378" s="3">
+        <f t="shared" si="101"/>
+        <v>22</v>
+      </c>
+      <c r="I378" s="4">
+        <f t="shared" si="102"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C379">
+        <v>593453</v>
+      </c>
+      <c r="D379">
+        <v>13281</v>
+      </c>
+      <c r="E379">
+        <v>563823</v>
+      </c>
+      <c r="F379">
+        <v>16349</v>
+      </c>
+      <c r="G379" s="2">
+        <f t="shared" si="100"/>
+        <v>1353</v>
+      </c>
+      <c r="H379" s="3">
+        <f t="shared" si="101"/>
+        <v>54</v>
+      </c>
+      <c r="I379" s="4">
+        <f t="shared" si="102"/>
+        <v>3365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I379" sqref="I379"/>
+    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H382" sqref="H382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12536,6 +12536,70 @@
         <v>3365</v>
       </c>
     </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C380">
+        <v>595239</v>
+      </c>
+      <c r="D380">
+        <v>13324</v>
+      </c>
+      <c r="E380">
+        <v>565216</v>
+      </c>
+      <c r="F380">
+        <v>16699</v>
+      </c>
+      <c r="G380" s="2">
+        <f t="shared" ref="G380:G381" si="103">C380-C379</f>
+        <v>1786</v>
+      </c>
+      <c r="H380" s="3">
+        <f t="shared" ref="H380:H381" si="104">D380-D379</f>
+        <v>43</v>
+      </c>
+      <c r="I380" s="4">
+        <f t="shared" ref="I380:I381" si="105">E380-E379</f>
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C381">
+        <v>597497</v>
+      </c>
+      <c r="D381">
+        <v>13377</v>
+      </c>
+      <c r="E381">
+        <v>566492</v>
+      </c>
+      <c r="F381">
+        <v>17628</v>
+      </c>
+      <c r="G381" s="2">
+        <f t="shared" si="103"/>
+        <v>2258</v>
+      </c>
+      <c r="H381" s="3">
+        <f t="shared" si="104"/>
+        <v>53</v>
+      </c>
+      <c r="I381" s="4">
+        <f t="shared" si="105"/>
+        <v>1276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H382" sqref="H382"/>
+    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I389" sqref="I389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12600,6 +12600,166 @@
         <v>1276</v>
       </c>
     </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C382">
+        <v>600198</v>
+      </c>
+      <c r="D382">
+        <v>13430</v>
+      </c>
+      <c r="E382">
+        <v>568065</v>
+      </c>
+      <c r="F382">
+        <v>18703</v>
+      </c>
+      <c r="G382" s="2">
+        <f t="shared" ref="G382" si="106">C382-C381</f>
+        <v>2701</v>
+      </c>
+      <c r="H382" s="3">
+        <f t="shared" ref="H382" si="107">D382-D381</f>
+        <v>53</v>
+      </c>
+      <c r="I382" s="4">
+        <f t="shared" ref="I382" si="108">E382-E381</f>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" s="1">
+        <v>44267</v>
+      </c>
+      <c r="C383">
+        <v>602536</v>
+      </c>
+      <c r="D383">
+        <v>13476</v>
+      </c>
+      <c r="E383">
+        <v>569296</v>
+      </c>
+      <c r="F383">
+        <v>19764</v>
+      </c>
+      <c r="G383" s="2">
+        <f t="shared" ref="G383:G385" si="109">C383-C382</f>
+        <v>2338</v>
+      </c>
+      <c r="H383" s="3">
+        <f t="shared" ref="H383:H385" si="110">D383-D382</f>
+        <v>46</v>
+      </c>
+      <c r="I383" s="4">
+        <f t="shared" ref="I383:I385" si="111">E383-E382</f>
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" s="1">
+        <v>44268</v>
+      </c>
+      <c r="C384">
+        <v>605200</v>
+      </c>
+      <c r="D384">
+        <v>13508</v>
+      </c>
+      <c r="E384">
+        <v>570571</v>
+      </c>
+      <c r="F384">
+        <v>21121</v>
+      </c>
+      <c r="G384" s="2">
+        <f t="shared" si="109"/>
+        <v>2664</v>
+      </c>
+      <c r="H384" s="3">
+        <f t="shared" si="110"/>
+        <v>32</v>
+      </c>
+      <c r="I384" s="4">
+        <f t="shared" si="111"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" s="1">
+        <v>44269</v>
+      </c>
+      <c r="C385">
+        <v>607453</v>
+      </c>
+      <c r="D385">
+        <v>13537</v>
+      </c>
+      <c r="E385">
+        <v>571878</v>
+      </c>
+      <c r="F385">
+        <v>22038</v>
+      </c>
+      <c r="G385" s="2">
+        <f t="shared" si="109"/>
+        <v>2253</v>
+      </c>
+      <c r="H385" s="3">
+        <f t="shared" si="110"/>
+        <v>29</v>
+      </c>
+      <c r="I385" s="4">
+        <f t="shared" si="111"/>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" s="1">
+        <v>44270</v>
+      </c>
+      <c r="C386">
+        <v>609964</v>
+      </c>
+      <c r="D386">
+        <v>13595</v>
+      </c>
+      <c r="E386">
+        <v>573014</v>
+      </c>
+      <c r="F386">
+        <v>23355</v>
+      </c>
+      <c r="G386" s="2">
+        <f t="shared" ref="G386" si="112">C386-C385</f>
+        <v>2511</v>
+      </c>
+      <c r="H386" s="3">
+        <f t="shared" ref="H386" si="113">D386-D385</f>
+        <v>58</v>
+      </c>
+      <c r="I386" s="4">
+        <f t="shared" ref="I386" si="114">E386-E385</f>
+        <v>1136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I389" sqref="I389"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12760,6 +12760,102 @@
         <v>1136</v>
       </c>
     </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387" s="1">
+        <v>44271</v>
+      </c>
+      <c r="C387">
+        <v>612315</v>
+      </c>
+      <c r="D387">
+        <v>13656</v>
+      </c>
+      <c r="E387">
+        <v>575867</v>
+      </c>
+      <c r="F387">
+        <v>22792</v>
+      </c>
+      <c r="G387" s="2">
+        <f t="shared" ref="G387" si="115">C387-C386</f>
+        <v>2351</v>
+      </c>
+      <c r="H387" s="3">
+        <f t="shared" ref="H387" si="116">D387-D386</f>
+        <v>61</v>
+      </c>
+      <c r="I387" s="4">
+        <f t="shared" ref="I387" si="117">E387-E386</f>
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" s="1">
+        <v>44272</v>
+      </c>
+      <c r="C388">
+        <v>615810</v>
+      </c>
+      <c r="D388">
+        <v>13717</v>
+      </c>
+      <c r="E388">
+        <v>577501</v>
+      </c>
+      <c r="F388">
+        <v>24592</v>
+      </c>
+      <c r="G388" s="2">
+        <f t="shared" ref="G388:G389" si="118">C388-C387</f>
+        <v>3495</v>
+      </c>
+      <c r="H388" s="3">
+        <f t="shared" ref="H388:H389" si="119">D388-D387</f>
+        <v>61</v>
+      </c>
+      <c r="I388" s="4">
+        <f t="shared" ref="I388:I389" si="120">E388-E387</f>
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" s="1">
+        <v>44273</v>
+      </c>
+      <c r="C389">
+        <v>619259</v>
+      </c>
+      <c r="D389">
+        <v>13757</v>
+      </c>
+      <c r="E389">
+        <v>578314</v>
+      </c>
+      <c r="F389">
+        <v>27188</v>
+      </c>
+      <c r="G389" s="2">
+        <f t="shared" si="118"/>
+        <v>3449</v>
+      </c>
+      <c r="H389" s="3">
+        <f t="shared" si="119"/>
+        <v>40</v>
+      </c>
+      <c r="I389" s="4">
+        <f t="shared" si="120"/>
+        <v>813</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A390" sqref="A390"/>
+    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12856,6 +12856,390 @@
         <v>813</v>
       </c>
     </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" s="1">
+        <v>44274</v>
+      </c>
+      <c r="C390">
+        <v>623135</v>
+      </c>
+      <c r="D390">
+        <v>13799</v>
+      </c>
+      <c r="E390">
+        <v>579760</v>
+      </c>
+      <c r="F390">
+        <v>29576</v>
+      </c>
+      <c r="G390" s="2">
+        <f t="shared" ref="G390:G400" si="121">C390-C389</f>
+        <v>3876</v>
+      </c>
+      <c r="H390" s="3">
+        <f t="shared" ref="H390:H400" si="122">D390-D389</f>
+        <v>42</v>
+      </c>
+      <c r="I390" s="4">
+        <f t="shared" ref="I390:I400" si="123">E390-E389</f>
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" s="1">
+        <v>44275</v>
+      </c>
+      <c r="C391">
+        <v>626802</v>
+      </c>
+      <c r="D391">
+        <v>13843</v>
+      </c>
+      <c r="E391">
+        <v>581852</v>
+      </c>
+      <c r="F391">
+        <v>31107</v>
+      </c>
+      <c r="G391" s="2">
+        <f t="shared" si="121"/>
+        <v>3667</v>
+      </c>
+      <c r="H391" s="3">
+        <f t="shared" si="122"/>
+        <v>44</v>
+      </c>
+      <c r="I391" s="4">
+        <f t="shared" si="123"/>
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" s="1">
+        <v>44276</v>
+      </c>
+      <c r="C392">
+        <v>630471</v>
+      </c>
+      <c r="D392">
+        <v>13863</v>
+      </c>
+      <c r="E392">
+        <v>583538</v>
+      </c>
+      <c r="F392">
+        <v>33070</v>
+      </c>
+      <c r="G392" s="2">
+        <f t="shared" si="121"/>
+        <v>3669</v>
+      </c>
+      <c r="H392" s="3">
+        <f t="shared" si="122"/>
+        <v>20</v>
+      </c>
+      <c r="I392" s="4">
+        <f t="shared" si="123"/>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" s="1">
+        <v>44277</v>
+      </c>
+      <c r="C393">
+        <v>633741</v>
+      </c>
+      <c r="D393">
+        <v>13935</v>
+      </c>
+      <c r="E393">
+        <v>585271</v>
+      </c>
+      <c r="F393">
+        <v>34535</v>
+      </c>
+      <c r="G393" s="2">
+        <f t="shared" si="121"/>
+        <v>3270</v>
+      </c>
+      <c r="H393" s="3">
+        <f t="shared" si="122"/>
+        <v>72</v>
+      </c>
+      <c r="I393" s="4">
+        <f t="shared" si="123"/>
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" s="1">
+        <v>44278</v>
+      </c>
+      <c r="C394">
+        <v>637042</v>
+      </c>
+      <c r="D394">
+        <v>13965</v>
+      </c>
+      <c r="E394">
+        <v>586228</v>
+      </c>
+      <c r="F394">
+        <v>36849</v>
+      </c>
+      <c r="G394" s="2">
+        <f t="shared" si="121"/>
+        <v>3301</v>
+      </c>
+      <c r="H394" s="3">
+        <f t="shared" si="122"/>
+        <v>30</v>
+      </c>
+      <c r="I394" s="4">
+        <f t="shared" si="123"/>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" s="1">
+        <v>44279</v>
+      </c>
+      <c r="C395">
+        <v>640988</v>
+      </c>
+      <c r="D395">
+        <v>14028</v>
+      </c>
+      <c r="E395">
+        <v>588975</v>
+      </c>
+      <c r="F395">
+        <v>37985</v>
+      </c>
+      <c r="G395" s="2">
+        <f t="shared" si="121"/>
+        <v>3946</v>
+      </c>
+      <c r="H395" s="3">
+        <f t="shared" si="122"/>
+        <v>63</v>
+      </c>
+      <c r="I395" s="4">
+        <f t="shared" si="123"/>
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" s="1">
+        <v>44280</v>
+      </c>
+      <c r="C396">
+        <v>645356</v>
+      </c>
+      <c r="D396">
+        <v>14091</v>
+      </c>
+      <c r="E396">
+        <v>591145</v>
+      </c>
+      <c r="F396">
+        <v>40120</v>
+      </c>
+      <c r="G396" s="2">
+        <f t="shared" si="121"/>
+        <v>4368</v>
+      </c>
+      <c r="H396" s="3">
+        <f t="shared" si="122"/>
+        <v>63</v>
+      </c>
+      <c r="I396" s="4">
+        <f t="shared" si="123"/>
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" s="1">
+        <v>44281</v>
+      </c>
+      <c r="C397">
+        <v>649824</v>
+      </c>
+      <c r="D397">
+        <v>14158</v>
+      </c>
+      <c r="E397">
+        <v>593282</v>
+      </c>
+      <c r="F397">
+        <v>42384</v>
+      </c>
+      <c r="G397" s="2">
+        <f t="shared" si="121"/>
+        <v>4468</v>
+      </c>
+      <c r="H397" s="3">
+        <f t="shared" si="122"/>
+        <v>67</v>
+      </c>
+      <c r="I397" s="4">
+        <f t="shared" si="123"/>
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" s="1">
+        <v>44282</v>
+      </c>
+      <c r="C398">
+        <v>654591</v>
+      </c>
+      <c r="D398">
+        <v>14215</v>
+      </c>
+      <c r="E398">
+        <v>595929</v>
+      </c>
+      <c r="F398">
+        <v>44447</v>
+      </c>
+      <c r="G398" s="2">
+        <f t="shared" si="121"/>
+        <v>4767</v>
+      </c>
+      <c r="H398" s="3">
+        <f t="shared" si="122"/>
+        <v>57</v>
+      </c>
+      <c r="I398" s="4">
+        <f t="shared" si="123"/>
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>9</v>
+      </c>
+      <c r="B399" s="1">
+        <v>44283</v>
+      </c>
+      <c r="C399">
+        <v>659116</v>
+      </c>
+      <c r="D399">
+        <v>14256</v>
+      </c>
+      <c r="E399">
+        <v>598197</v>
+      </c>
+      <c r="F399">
+        <v>46663</v>
+      </c>
+      <c r="G399" s="2">
+        <f t="shared" si="121"/>
+        <v>4525</v>
+      </c>
+      <c r="H399" s="3">
+        <f t="shared" si="122"/>
+        <v>41</v>
+      </c>
+      <c r="I399" s="4">
+        <f t="shared" si="123"/>
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400" s="1">
+        <v>44284</v>
+      </c>
+      <c r="C400">
+        <v>663200</v>
+      </c>
+      <c r="D400">
+        <v>14356</v>
+      </c>
+      <c r="E400">
+        <v>600278</v>
+      </c>
+      <c r="F400">
+        <v>48566</v>
+      </c>
+      <c r="G400" s="2">
+        <f t="shared" si="121"/>
+        <v>4084</v>
+      </c>
+      <c r="H400" s="3">
+        <f t="shared" si="122"/>
+        <v>100</v>
+      </c>
+      <c r="I400" s="4">
+        <f t="shared" si="123"/>
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401" s="1">
+        <v>44285</v>
+      </c>
+      <c r="C401">
+        <v>667957</v>
+      </c>
+      <c r="D401">
+        <v>14434</v>
+      </c>
+      <c r="E401">
+        <v>603126</v>
+      </c>
+      <c r="F401">
+        <v>50397</v>
+      </c>
+      <c r="G401" s="2">
+        <f t="shared" ref="G401" si="124">C401-C400</f>
+        <v>4757</v>
+      </c>
+      <c r="H401" s="3">
+        <f t="shared" ref="H401" si="125">D401-D400</f>
+        <v>78</v>
+      </c>
+      <c r="I401" s="4">
+        <f t="shared" ref="I401" si="126">E401-E400</f>
+        <v>2848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="10">
   <si>
     <t>Country</t>
   </si>
@@ -95,7 +95,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -129,6 +135,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,11 +411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C498" sqref="C498"/>
+      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K539" sqref="K539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17041,6 +17048,1318 @@
         <v>738</v>
       </c>
     </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>9</v>
+      </c>
+      <c r="B507" s="1">
+        <v>44391</v>
+      </c>
+      <c r="C507">
+        <v>981392</v>
+      </c>
+      <c r="D507">
+        <v>22689</v>
+      </c>
+      <c r="E507">
+        <v>916373</v>
+      </c>
+      <c r="F507">
+        <v>42330</v>
+      </c>
+      <c r="G507" s="2">
+        <f t="shared" ref="G507:G519" si="154">C507-C506</f>
+        <v>2545</v>
+      </c>
+      <c r="H507" s="3">
+        <f t="shared" ref="H507:H519" si="155">D507-D506</f>
+        <v>47</v>
+      </c>
+      <c r="I507" s="4">
+        <f t="shared" ref="I507:I519" si="156">E507-E506</f>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>9</v>
+      </c>
+      <c r="B508" s="1">
+        <v>44392</v>
+      </c>
+      <c r="C508">
+        <v>983719</v>
+      </c>
+      <c r="D508">
+        <v>22720</v>
+      </c>
+      <c r="E508">
+        <v>917329</v>
+      </c>
+      <c r="F508">
+        <v>43670</v>
+      </c>
+      <c r="G508" s="2">
+        <f t="shared" si="154"/>
+        <v>2327</v>
+      </c>
+      <c r="H508" s="3">
+        <f t="shared" si="155"/>
+        <v>31</v>
+      </c>
+      <c r="I508" s="4">
+        <f t="shared" si="156"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>9</v>
+      </c>
+      <c r="B509" s="1">
+        <v>44393</v>
+      </c>
+      <c r="C509">
+        <v>986668</v>
+      </c>
+      <c r="D509">
+        <v>22760</v>
+      </c>
+      <c r="E509">
+        <v>918329</v>
+      </c>
+      <c r="F509">
+        <v>43670</v>
+      </c>
+      <c r="G509" s="2">
+        <f t="shared" si="154"/>
+        <v>2949</v>
+      </c>
+      <c r="H509" s="3">
+        <f t="shared" si="155"/>
+        <v>40</v>
+      </c>
+      <c r="I509" s="4">
+        <f t="shared" si="156"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>9</v>
+      </c>
+      <c r="B510" s="1">
+        <v>44394</v>
+      </c>
+      <c r="C510">
+        <v>989275</v>
+      </c>
+      <c r="D510">
+        <v>22781</v>
+      </c>
+      <c r="E510">
+        <v>919163</v>
+      </c>
+      <c r="F510">
+        <v>47331</v>
+      </c>
+      <c r="G510" s="2">
+        <f t="shared" si="154"/>
+        <v>2607</v>
+      </c>
+      <c r="H510" s="3">
+        <f t="shared" si="155"/>
+        <v>21</v>
+      </c>
+      <c r="I510" s="4">
+        <f t="shared" si="156"/>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>9</v>
+      </c>
+      <c r="B511" s="1">
+        <v>44395</v>
+      </c>
+      <c r="C511">
+        <v>991727</v>
+      </c>
+      <c r="D511">
+        <v>22811</v>
+      </c>
+      <c r="E511">
+        <v>920066</v>
+      </c>
+      <c r="F511">
+        <v>48850</v>
+      </c>
+      <c r="G511" s="2">
+        <f t="shared" si="154"/>
+        <v>2452</v>
+      </c>
+      <c r="H511" s="3">
+        <f t="shared" si="155"/>
+        <v>30</v>
+      </c>
+      <c r="I511" s="4">
+        <f t="shared" si="156"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" t="s">
+        <v>9</v>
+      </c>
+      <c r="B512" s="1">
+        <v>44396</v>
+      </c>
+      <c r="C512">
+        <v>993872</v>
+      </c>
+      <c r="D512">
+        <v>22848</v>
+      </c>
+      <c r="E512">
+        <v>921095</v>
+      </c>
+      <c r="F512">
+        <v>48850</v>
+      </c>
+      <c r="G512" s="2">
+        <f t="shared" si="154"/>
+        <v>2145</v>
+      </c>
+      <c r="H512" s="3">
+        <f t="shared" si="155"/>
+        <v>37</v>
+      </c>
+      <c r="I512" s="4">
+        <f t="shared" si="156"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" t="s">
+        <v>9</v>
+      </c>
+      <c r="B513" s="1">
+        <v>44397</v>
+      </c>
+      <c r="C513">
+        <v>996451</v>
+      </c>
+      <c r="D513">
+        <v>22888</v>
+      </c>
+      <c r="E513">
+        <v>922034</v>
+      </c>
+      <c r="F513">
+        <v>51529</v>
+      </c>
+      <c r="G513" s="2">
+        <f t="shared" si="154"/>
+        <v>2579</v>
+      </c>
+      <c r="H513" s="3">
+        <f t="shared" si="155"/>
+        <v>40</v>
+      </c>
+      <c r="I513" s="4">
+        <f t="shared" si="156"/>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514" t="s">
+        <v>9</v>
+      </c>
+      <c r="B514" s="1">
+        <v>44398</v>
+      </c>
+      <c r="C514">
+        <v>998609</v>
+      </c>
+      <c r="D514">
+        <v>22928</v>
+      </c>
+      <c r="E514">
+        <v>922929</v>
+      </c>
+      <c r="F514">
+        <v>52752</v>
+      </c>
+      <c r="G514" s="2">
+        <f t="shared" si="154"/>
+        <v>2158</v>
+      </c>
+      <c r="H514" s="3">
+        <f t="shared" si="155"/>
+        <v>40</v>
+      </c>
+      <c r="I514" s="4">
+        <f t="shared" si="156"/>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515" t="s">
+        <v>9</v>
+      </c>
+      <c r="B515" s="1">
+        <v>44399</v>
+      </c>
+      <c r="C515">
+        <v>1000034</v>
+      </c>
+      <c r="D515">
+        <v>22939</v>
+      </c>
+      <c r="E515">
+        <v>923472</v>
+      </c>
+      <c r="F515">
+        <v>53623</v>
+      </c>
+      <c r="G515" s="2">
+        <f t="shared" si="154"/>
+        <v>1425</v>
+      </c>
+      <c r="H515" s="3">
+        <f t="shared" si="155"/>
+        <v>11</v>
+      </c>
+      <c r="I515" s="4">
+        <f t="shared" si="156"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516" t="s">
+        <v>9</v>
+      </c>
+      <c r="B516" s="1">
+        <v>44400</v>
+      </c>
+      <c r="C516">
+        <v>1001875</v>
+      </c>
+      <c r="D516">
+        <v>22971</v>
+      </c>
+      <c r="E516">
+        <v>924782</v>
+      </c>
+      <c r="F516">
+        <v>54122</v>
+      </c>
+      <c r="G516" s="2">
+        <f t="shared" si="154"/>
+        <v>1841</v>
+      </c>
+      <c r="H516" s="3">
+        <f t="shared" si="155"/>
+        <v>32</v>
+      </c>
+      <c r="I516" s="4">
+        <f t="shared" si="156"/>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517" t="s">
+        <v>9</v>
+      </c>
+      <c r="B517" s="1">
+        <v>44401</v>
+      </c>
+      <c r="C517">
+        <v>1004694</v>
+      </c>
+      <c r="D517">
+        <v>23016</v>
+      </c>
+      <c r="E517">
+        <v>925958</v>
+      </c>
+      <c r="F517">
+        <v>55720</v>
+      </c>
+      <c r="G517" s="2">
+        <f t="shared" si="154"/>
+        <v>2819</v>
+      </c>
+      <c r="H517" s="3">
+        <f t="shared" si="155"/>
+        <v>45</v>
+      </c>
+      <c r="I517" s="4">
+        <f t="shared" si="156"/>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518" t="s">
+        <v>9</v>
+      </c>
+      <c r="B518" s="1">
+        <v>44402</v>
+      </c>
+      <c r="C518">
+        <v>1008446</v>
+      </c>
+      <c r="D518">
+        <v>23048</v>
+      </c>
+      <c r="E518">
+        <v>927599</v>
+      </c>
+      <c r="F518">
+        <v>57799</v>
+      </c>
+      <c r="G518" s="2">
+        <f t="shared" si="154"/>
+        <v>3752</v>
+      </c>
+      <c r="H518" s="3">
+        <f t="shared" si="155"/>
+        <v>32</v>
+      </c>
+      <c r="I518" s="4">
+        <f t="shared" si="156"/>
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519" t="s">
+        <v>9</v>
+      </c>
+      <c r="B519" s="1">
+        <v>44403</v>
+      </c>
+      <c r="C519">
+        <v>1011708</v>
+      </c>
+      <c r="D519">
+        <v>23087</v>
+      </c>
+      <c r="E519">
+        <v>928722</v>
+      </c>
+      <c r="F519">
+        <v>59899</v>
+      </c>
+      <c r="G519" s="2">
+        <f t="shared" si="154"/>
+        <v>3262</v>
+      </c>
+      <c r="H519" s="3">
+        <f t="shared" si="155"/>
+        <v>39</v>
+      </c>
+      <c r="I519" s="4">
+        <f t="shared" si="156"/>
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520" t="s">
+        <v>9</v>
+      </c>
+      <c r="B520" s="1">
+        <v>44404</v>
+      </c>
+      <c r="C520">
+        <v>1015827</v>
+      </c>
+      <c r="D520">
+        <v>23133</v>
+      </c>
+      <c r="E520">
+        <v>935742</v>
+      </c>
+      <c r="F520">
+        <v>56952</v>
+      </c>
+      <c r="G520" s="2">
+        <f t="shared" ref="G520" si="157">C520-C519</f>
+        <v>4119</v>
+      </c>
+      <c r="H520" s="3">
+        <f t="shared" ref="H520" si="158">D520-D519</f>
+        <v>46</v>
+      </c>
+      <c r="I520" s="4">
+        <f t="shared" ref="I520" si="159">E520-E519</f>
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" t="s">
+        <v>9</v>
+      </c>
+      <c r="B521" s="1">
+        <v>44405</v>
+      </c>
+      <c r="C521">
+        <v>1020324</v>
+      </c>
+      <c r="D521">
+        <v>23209</v>
+      </c>
+      <c r="E521">
+        <v>937354</v>
+      </c>
+      <c r="F521">
+        <v>59761</v>
+      </c>
+      <c r="G521" s="2">
+        <f t="shared" ref="G521" si="160">C521-C520</f>
+        <v>4497</v>
+      </c>
+      <c r="H521" s="3">
+        <f t="shared" ref="H521" si="161">D521-D520</f>
+        <v>76</v>
+      </c>
+      <c r="I521" s="4">
+        <f t="shared" ref="I521" si="162">E521-E520</f>
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9">
+      <c r="A522" t="s">
+        <v>9</v>
+      </c>
+      <c r="B522" s="1">
+        <v>44406</v>
+      </c>
+      <c r="C522" s="7">
+        <v>1024861</v>
+      </c>
+      <c r="D522">
+        <v>23295</v>
+      </c>
+      <c r="E522">
+        <v>938843</v>
+      </c>
+      <c r="F522">
+        <v>62723</v>
+      </c>
+      <c r="G522" s="2">
+        <f t="shared" ref="G522:G534" si="163">C522-C521</f>
+        <v>4537</v>
+      </c>
+      <c r="H522" s="3">
+        <f t="shared" ref="H522:H534" si="164">D522-D521</f>
+        <v>86</v>
+      </c>
+      <c r="I522" s="4">
+        <f t="shared" ref="I522:I534" si="165">E522-E521</f>
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" t="s">
+        <v>9</v>
+      </c>
+      <c r="B523" s="1">
+        <v>44407</v>
+      </c>
+      <c r="C523">
+        <v>1029811</v>
+      </c>
+      <c r="D523">
+        <v>23360</v>
+      </c>
+      <c r="E523">
+        <v>940164</v>
+      </c>
+      <c r="F523">
+        <v>66287</v>
+      </c>
+      <c r="G523" s="2">
+        <f t="shared" si="163"/>
+        <v>4950</v>
+      </c>
+      <c r="H523" s="3">
+        <f t="shared" si="164"/>
+        <v>65</v>
+      </c>
+      <c r="I523" s="4">
+        <f t="shared" si="165"/>
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" t="s">
+        <v>9</v>
+      </c>
+      <c r="B524" s="1">
+        <v>44408</v>
+      </c>
+      <c r="C524">
+        <v>1034837</v>
+      </c>
+      <c r="D524">
+        <v>23422</v>
+      </c>
+      <c r="E524">
+        <v>941659</v>
+      </c>
+      <c r="F524">
+        <v>69756</v>
+      </c>
+      <c r="G524" s="2">
+        <f t="shared" si="163"/>
+        <v>5026</v>
+      </c>
+      <c r="H524" s="3">
+        <f t="shared" si="164"/>
+        <v>62</v>
+      </c>
+      <c r="I524" s="4">
+        <f t="shared" si="165"/>
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" t="s">
+        <v>9</v>
+      </c>
+      <c r="B525" s="1">
+        <v>44409</v>
+      </c>
+      <c r="C525">
+        <v>1039695</v>
+      </c>
+      <c r="D525">
+        <v>23462</v>
+      </c>
+      <c r="E525">
+        <v>943020</v>
+      </c>
+      <c r="F525">
+        <v>73213</v>
+      </c>
+      <c r="G525" s="2">
+        <f t="shared" si="163"/>
+        <v>4858</v>
+      </c>
+      <c r="H525" s="3">
+        <f t="shared" si="164"/>
+        <v>40</v>
+      </c>
+      <c r="I525" s="4">
+        <f t="shared" si="165"/>
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" t="s">
+        <v>9</v>
+      </c>
+      <c r="B526" s="1">
+        <v>44410</v>
+      </c>
+      <c r="C526">
+        <v>1043277</v>
+      </c>
+      <c r="D526">
+        <v>23529</v>
+      </c>
+      <c r="E526">
+        <v>944375</v>
+      </c>
+      <c r="F526">
+        <v>75373</v>
+      </c>
+      <c r="G526" s="2">
+        <f t="shared" si="163"/>
+        <v>3582</v>
+      </c>
+      <c r="H526" s="3">
+        <f t="shared" si="164"/>
+        <v>67</v>
+      </c>
+      <c r="I526" s="4">
+        <f t="shared" si="165"/>
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="A527" t="s">
+        <v>9</v>
+      </c>
+      <c r="B527" s="1">
+        <v>44411</v>
+      </c>
+      <c r="C527">
+        <v>1047999</v>
+      </c>
+      <c r="D527">
+        <v>23575</v>
+      </c>
+      <c r="E527">
+        <v>945829</v>
+      </c>
+      <c r="F527">
+        <v>78595</v>
+      </c>
+      <c r="G527" s="2">
+        <f t="shared" si="163"/>
+        <v>4722</v>
+      </c>
+      <c r="H527" s="3">
+        <f t="shared" si="164"/>
+        <v>46</v>
+      </c>
+      <c r="I527" s="4">
+        <f t="shared" si="165"/>
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" t="s">
+        <v>9</v>
+      </c>
+      <c r="B528" s="1">
+        <v>44412</v>
+      </c>
+      <c r="C528">
+        <v>1053660</v>
+      </c>
+      <c r="D528">
+        <v>23635</v>
+      </c>
+      <c r="E528">
+        <v>952616</v>
+      </c>
+      <c r="F528">
+        <v>77409</v>
+      </c>
+      <c r="G528" s="2">
+        <f t="shared" si="163"/>
+        <v>5661</v>
+      </c>
+      <c r="H528" s="3">
+        <f t="shared" si="164"/>
+        <v>60</v>
+      </c>
+      <c r="I528" s="4">
+        <f t="shared" si="165"/>
+        <v>6787</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" t="s">
+        <v>9</v>
+      </c>
+      <c r="B529" s="1">
+        <v>44413</v>
+      </c>
+      <c r="C529">
+        <v>1058405</v>
+      </c>
+      <c r="D529">
+        <v>23702</v>
+      </c>
+      <c r="E529">
+        <v>954711</v>
+      </c>
+      <c r="F529">
+        <v>1034703</v>
+      </c>
+      <c r="G529" s="2">
+        <f t="shared" si="163"/>
+        <v>4745</v>
+      </c>
+      <c r="H529" s="3">
+        <f t="shared" si="164"/>
+        <v>67</v>
+      </c>
+      <c r="I529" s="4">
+        <f t="shared" si="165"/>
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="A530" t="s">
+        <v>9</v>
+      </c>
+      <c r="B530" s="1">
+        <v>44414</v>
+      </c>
+      <c r="C530">
+        <v>1063125</v>
+      </c>
+      <c r="D530">
+        <v>23797</v>
+      </c>
+      <c r="E530">
+        <v>959491</v>
+      </c>
+      <c r="F530">
+        <v>1039328</v>
+      </c>
+      <c r="G530" s="2">
+        <f t="shared" si="163"/>
+        <v>4720</v>
+      </c>
+      <c r="H530" s="3">
+        <f t="shared" si="164"/>
+        <v>95</v>
+      </c>
+      <c r="I530" s="4">
+        <f t="shared" si="165"/>
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" t="s">
+        <v>9</v>
+      </c>
+      <c r="B531" s="1">
+        <v>44415</v>
+      </c>
+      <c r="C531">
+        <v>1067580</v>
+      </c>
+      <c r="D531">
+        <v>23865</v>
+      </c>
+      <c r="E531">
+        <v>961639</v>
+      </c>
+      <c r="F531">
+        <v>1043715</v>
+      </c>
+      <c r="G531" s="2">
+        <f t="shared" si="163"/>
+        <v>4455</v>
+      </c>
+      <c r="H531" s="3">
+        <f t="shared" si="164"/>
+        <v>68</v>
+      </c>
+      <c r="I531" s="4">
+        <f t="shared" si="165"/>
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" t="s">
+        <v>9</v>
+      </c>
+      <c r="B532" s="1">
+        <v>44416</v>
+      </c>
+      <c r="C532">
+        <v>1071620</v>
+      </c>
+      <c r="D532">
+        <v>23918</v>
+      </c>
+      <c r="E532">
+        <v>964404</v>
+      </c>
+      <c r="F532">
+        <v>1047702</v>
+      </c>
+      <c r="G532" s="2">
+        <f t="shared" si="163"/>
+        <v>4040</v>
+      </c>
+      <c r="H532" s="3">
+        <f t="shared" si="164"/>
+        <v>53</v>
+      </c>
+      <c r="I532" s="4">
+        <f t="shared" si="165"/>
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" t="s">
+        <v>9</v>
+      </c>
+      <c r="B533" s="1">
+        <v>44417</v>
+      </c>
+      <c r="C533">
+        <v>1075504</v>
+      </c>
+      <c r="D533">
+        <v>24004</v>
+      </c>
+      <c r="E533">
+        <v>967073</v>
+      </c>
+      <c r="F533">
+        <v>1051500</v>
+      </c>
+      <c r="G533" s="2">
+        <f t="shared" si="163"/>
+        <v>3884</v>
+      </c>
+      <c r="H533" s="3">
+        <f t="shared" si="164"/>
+        <v>86</v>
+      </c>
+      <c r="I533" s="4">
+        <f t="shared" si="165"/>
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" t="s">
+        <v>9</v>
+      </c>
+      <c r="B534" s="1">
+        <v>44418</v>
+      </c>
+      <c r="C534">
+        <v>1080360</v>
+      </c>
+      <c r="D534">
+        <v>24085</v>
+      </c>
+      <c r="E534">
+        <v>972098</v>
+      </c>
+      <c r="F534">
+        <v>1056275</v>
+      </c>
+      <c r="G534" s="2">
+        <f t="shared" si="163"/>
+        <v>4856</v>
+      </c>
+      <c r="H534" s="3">
+        <f t="shared" si="164"/>
+        <v>81</v>
+      </c>
+      <c r="I534" s="4">
+        <f t="shared" si="165"/>
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" t="s">
+        <v>9</v>
+      </c>
+      <c r="B535" s="1">
+        <v>44419</v>
+      </c>
+      <c r="C535" s="7">
+        <v>1085294</v>
+      </c>
+      <c r="D535">
+        <v>24187</v>
+      </c>
+      <c r="E535">
+        <v>975474</v>
+      </c>
+      <c r="F535">
+        <v>1061107</v>
+      </c>
+      <c r="G535" s="2">
+        <f t="shared" ref="G535:G547" si="166">C535-C534</f>
+        <v>4934</v>
+      </c>
+      <c r="H535" s="3">
+        <f t="shared" ref="H535:H547" si="167">D535-D534</f>
+        <v>102</v>
+      </c>
+      <c r="I535" s="4">
+        <f t="shared" ref="I535:I547" si="168">E535-E534</f>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" t="s">
+        <v>9</v>
+      </c>
+      <c r="B536" s="1">
+        <v>44420</v>
+      </c>
+      <c r="C536">
+        <v>1089913</v>
+      </c>
+      <c r="D536">
+        <v>24266</v>
+      </c>
+      <c r="E536">
+        <v>979411</v>
+      </c>
+      <c r="F536">
+        <v>1065647</v>
+      </c>
+      <c r="G536" s="2">
+        <f t="shared" si="166"/>
+        <v>4619</v>
+      </c>
+      <c r="H536" s="3">
+        <f t="shared" si="167"/>
+        <v>79</v>
+      </c>
+      <c r="I536" s="4">
+        <f t="shared" si="168"/>
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" t="s">
+        <v>9</v>
+      </c>
+      <c r="B537" s="1">
+        <v>44421</v>
+      </c>
+      <c r="C537">
+        <v>1094699</v>
+      </c>
+      <c r="D537">
+        <v>24339</v>
+      </c>
+      <c r="E537">
+        <v>983754</v>
+      </c>
+      <c r="F537">
+        <v>1070360</v>
+      </c>
+      <c r="G537" s="2">
+        <f t="shared" si="166"/>
+        <v>4786</v>
+      </c>
+      <c r="H537" s="3">
+        <f t="shared" si="167"/>
+        <v>73</v>
+      </c>
+      <c r="I537" s="4">
+        <f t="shared" si="168"/>
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" t="s">
+        <v>9</v>
+      </c>
+      <c r="B538" s="1">
+        <v>44422</v>
+      </c>
+      <c r="C538">
+        <v>1098410</v>
+      </c>
+      <c r="D538">
+        <v>24406</v>
+      </c>
+      <c r="E538">
+        <v>986795</v>
+      </c>
+      <c r="F538">
+        <v>1070360</v>
+      </c>
+      <c r="G538" s="2">
+        <f t="shared" si="166"/>
+        <v>3711</v>
+      </c>
+      <c r="H538" s="3">
+        <f t="shared" si="167"/>
+        <v>67</v>
+      </c>
+      <c r="I538" s="4">
+        <f t="shared" si="168"/>
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" t="s">
+        <v>9</v>
+      </c>
+      <c r="B539" s="1">
+        <v>44423</v>
+      </c>
+      <c r="C539">
+        <v>1102079</v>
+      </c>
+      <c r="D539">
+        <v>24478</v>
+      </c>
+      <c r="E539">
+        <v>989013</v>
+      </c>
+      <c r="F539">
+        <v>1077601</v>
+      </c>
+      <c r="G539" s="2">
+        <f t="shared" si="166"/>
+        <v>3669</v>
+      </c>
+      <c r="H539" s="3">
+        <f t="shared" si="167"/>
+        <v>72</v>
+      </c>
+      <c r="I539" s="4">
+        <f t="shared" si="168"/>
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" t="s">
+        <v>9</v>
+      </c>
+      <c r="B540" s="1">
+        <v>44424</v>
+      </c>
+      <c r="C540">
+        <v>1105300</v>
+      </c>
+      <c r="D540">
+        <v>24573</v>
+      </c>
+      <c r="E540">
+        <v>993304</v>
+      </c>
+      <c r="F540">
+        <v>1080727</v>
+      </c>
+      <c r="G540" s="2">
+        <f t="shared" si="166"/>
+        <v>3221</v>
+      </c>
+      <c r="H540" s="3">
+        <f t="shared" si="167"/>
+        <v>95</v>
+      </c>
+      <c r="I540" s="4">
+        <f t="shared" si="168"/>
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" t="s">
+        <v>9</v>
+      </c>
+      <c r="B541" s="1">
+        <v>44425</v>
+      </c>
+      <c r="C541">
+        <v>1109274</v>
+      </c>
+      <c r="D541">
+        <v>24639</v>
+      </c>
+      <c r="E541">
+        <v>996426</v>
+      </c>
+      <c r="F541">
+        <v>1080727</v>
+      </c>
+      <c r="G541" s="2">
+        <f t="shared" si="166"/>
+        <v>3974</v>
+      </c>
+      <c r="H541" s="3">
+        <f t="shared" si="167"/>
+        <v>66</v>
+      </c>
+      <c r="I541" s="4">
+        <f t="shared" si="168"/>
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" t="s">
+        <v>9</v>
+      </c>
+      <c r="B542" s="1">
+        <v>44426</v>
+      </c>
+      <c r="C542">
+        <v>1113647</v>
+      </c>
+      <c r="D542">
+        <v>24713</v>
+      </c>
+      <c r="E542">
+        <v>999403</v>
+      </c>
+      <c r="F542">
+        <v>1084635</v>
+      </c>
+      <c r="G542" s="2">
+        <f t="shared" si="166"/>
+        <v>4373</v>
+      </c>
+      <c r="H542" s="3">
+        <f t="shared" si="167"/>
+        <v>74</v>
+      </c>
+      <c r="I542" s="4">
+        <f t="shared" si="168"/>
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" t="s">
+        <v>9</v>
+      </c>
+      <c r="B543" s="1">
+        <v>44427</v>
+      </c>
+      <c r="C543">
+        <v>1116886</v>
+      </c>
+      <c r="D543">
+        <v>24783</v>
+      </c>
+      <c r="E543">
+        <v>1002430</v>
+      </c>
+      <c r="F543">
+        <v>1092103</v>
+      </c>
+      <c r="G543" s="2">
+        <f t="shared" si="166"/>
+        <v>3239</v>
+      </c>
+      <c r="H543" s="3">
+        <f t="shared" si="167"/>
+        <v>70</v>
+      </c>
+      <c r="I543" s="4">
+        <f t="shared" si="168"/>
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" t="s">
+        <v>9</v>
+      </c>
+      <c r="B544" s="1">
+        <v>44428</v>
+      </c>
+      <c r="C544">
+        <v>1119970</v>
+      </c>
+      <c r="D544">
+        <v>24848</v>
+      </c>
+      <c r="E544">
+        <v>1006078</v>
+      </c>
+      <c r="F544">
+        <v>1095122</v>
+      </c>
+      <c r="G544" s="2">
+        <f t="shared" si="166"/>
+        <v>3084</v>
+      </c>
+      <c r="H544" s="3">
+        <f t="shared" si="167"/>
+        <v>65</v>
+      </c>
+      <c r="I544" s="4">
+        <f t="shared" si="168"/>
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" t="s">
+        <v>9</v>
+      </c>
+      <c r="B545" s="1">
+        <v>44429</v>
+      </c>
+      <c r="C545">
+        <v>1123812</v>
+      </c>
+      <c r="D545">
+        <v>24923</v>
+      </c>
+      <c r="E545">
+        <v>1009555</v>
+      </c>
+      <c r="F545">
+        <v>1098889</v>
+      </c>
+      <c r="G545" s="2">
+        <f t="shared" si="166"/>
+        <v>3842</v>
+      </c>
+      <c r="H545" s="3">
+        <f t="shared" si="167"/>
+        <v>75</v>
+      </c>
+      <c r="I545" s="4">
+        <f t="shared" si="168"/>
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" t="s">
+        <v>9</v>
+      </c>
+      <c r="B546" s="1">
+        <v>44430</v>
+      </c>
+      <c r="C546">
+        <v>1127584</v>
+      </c>
+      <c r="D546">
+        <v>25003</v>
+      </c>
+      <c r="E546">
+        <v>1012662</v>
+      </c>
+      <c r="F546">
+        <v>1102581</v>
+      </c>
+      <c r="G546" s="2">
+        <f t="shared" si="166"/>
+        <v>3772</v>
+      </c>
+      <c r="H546" s="3">
+        <f t="shared" si="167"/>
+        <v>80</v>
+      </c>
+      <c r="I546" s="4">
+        <f t="shared" si="168"/>
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" t="s">
+        <v>9</v>
+      </c>
+      <c r="B547" s="1">
+        <v>44431</v>
+      </c>
+      <c r="C547">
+        <v>1131659</v>
+      </c>
+      <c r="D547">
+        <v>25094</v>
+      </c>
+      <c r="E547">
+        <v>1015519</v>
+      </c>
+      <c r="F547">
+        <v>1106565</v>
+      </c>
+      <c r="G547" s="2">
+        <f t="shared" si="166"/>
+        <v>4075</v>
+      </c>
+      <c r="H547" s="3">
+        <f t="shared" si="167"/>
+        <v>91</v>
+      </c>
+      <c r="I547" s="4">
+        <f t="shared" si="168"/>
+        <v>2857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
